--- a/biology/Médecine/Hématose/Hématose.xlsx
+++ b/biology/Médecine/Hématose/Hématose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9matose</t>
+          <t>Hématose</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hématose (du grec αἱμάτωσις [ aimátosis ], « action de convertir en sang »[1]) est une transformation chimique du sang, par son enrichissement en dioxygène et son appauvrissement en dioxyde de carbone pendant la respiration. Cet échange gazeux se produit entre le milieu extérieur et le sang d'un animal. Elle est produite par simple diffusion, à la faveur du gradient de pression partielle et sans dépense d'énergie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hématose (du grec αἱμάτωσις [ aimátosis ], « action de convertir en sang ») est une transformation chimique du sang, par son enrichissement en dioxygène et son appauvrissement en dioxyde de carbone pendant la respiration. Cet échange gazeux se produit entre le milieu extérieur et le sang d'un animal. Elle est produite par simple diffusion, à la faveur du gradient de pression partielle et sans dépense d'énergie.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9matose</t>
+          <t>Hématose</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Principe physiologique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De petits organismes, avec un bon rapport surface extérieure/volume, et avec un métabolisme faible, comme les plathelminthes, peuvent survivre sans structures anatomiques spécifiques à l'hématose, en utilisant simplement la surface extérieure de leur corps pour effectuer les échanges gazeux.
 D'autres organismes plus grands et plus actifs, tels que les amphibiens, utilisent l'échange cutané comme hématose complémentaire aux branchies ou aux poumons.
